--- a/collection.xlsx
+++ b/collection.xlsx
@@ -14016,11 +14016,11 @@
   <dimension ref="A1:V945"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4915" ySplit="555" topLeftCell="I34" activePane="bottomRight" state="split"/>
+      <pane xSplit="4915" ySplit="555" topLeftCell="I35" activePane="bottomRight" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="I51" activeCellId="0" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="P67" activeCellId="0" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38505,11 +38505,11 @@
   <dimension ref="A1:L899"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
-      <selection pane="bottomRight" activeCell="H91" activeCellId="0" sqref="H91"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39991,7 +39991,7 @@
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="32" t="s">
@@ -40009,7 +40009,6 @@
       <c r="G44" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="H44" s="11"/>
       <c r="I44" s="41" t="n">
         <v>14</v>
       </c>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="924">
   <si>
     <t xml:space="preserve">Summary</t>
   </si>
@@ -2939,9 +2939,6 @@
   <si>
     <t xml:space="preserve">13, 27</t>
   </si>
-  <si>
-    <t xml:space="preserve">Nicolas’ Definitive pattern</t>
-  </si>
 </sst>
 </file>
 
@@ -2951,7 +2948,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3074,6 +3071,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3135,7 +3140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3284,6 +3289,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3296,7 +3305,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3435,7 +3444,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="L116 B25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3547,7 +3556,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A22" activeCellId="1" sqref="L116 A22"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5599,10 +5608,10 @@
   </sheetPr>
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="720" topLeftCell="F1" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="R162" activeCellId="0" sqref="R162"/>
-      <selection pane="bottomLeft" activeCell="V1" activeCellId="1" sqref="L116 V1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="720" topLeftCell="F148" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+      <selection pane="bottomLeft" activeCell="B165" activeCellId="0" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14216,13 +14225,13 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+      <c r="A162" s="37" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="C162" s="37" t="n">
+      <c r="C162" s="38" t="n">
         <v>40</v>
       </c>
       <c r="D162" s="11" t="s">
@@ -14309,12 +14318,12 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J107" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
-      <selection pane="bottomRight" activeCell="L116" activeCellId="0" sqref="L116"/>
+      <selection pane="bottomLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="B102" activeCellId="0" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14368,7 +14377,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="19"/>
@@ -14388,7 +14397,7 @@
         <v>189</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="38" t="n">
+      <c r="I2" s="39" t="n">
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -14402,7 +14411,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="19"/>
@@ -14422,7 +14431,7 @@
         <v>195</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="38" t="n">
+      <c r="I3" s="39" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -14436,7 +14445,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>197</v>
       </c>
       <c r="B4" s="19"/>
@@ -14456,7 +14465,7 @@
         <v>195</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="38" t="n">
+      <c r="I4" s="39" t="n">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -14470,7 +14479,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="19"/>
@@ -14490,7 +14499,7 @@
         <v>207</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="38" t="n">
+      <c r="I5" s="39" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -14504,7 +14513,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>208</v>
       </c>
       <c r="B6" s="19"/>
@@ -14524,7 +14533,7 @@
         <v>195</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="38" t="n">
+      <c r="I6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -14538,7 +14547,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>213</v>
       </c>
       <c r="B7" s="19"/>
@@ -14558,7 +14567,7 @@
         <v>189</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="38" t="n">
+      <c r="I7" s="39" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -14572,7 +14581,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>218</v>
       </c>
       <c r="B8" s="19"/>
@@ -14592,7 +14601,7 @@
         <v>189</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="39" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="11" t="s">
@@ -14606,7 +14615,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>241</v>
       </c>
       <c r="B9" s="19"/>
@@ -14626,7 +14635,7 @@
         <v>207</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="39" t="n">
         <v>5</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -14640,7 +14649,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B10" s="19"/>
@@ -14660,7 +14669,7 @@
         <v>207</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="39" t="n">
         <v>5</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -14674,7 +14683,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>247</v>
       </c>
       <c r="B11" s="19"/>
@@ -14694,7 +14703,7 @@
         <v>207</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="39" t="n">
         <v>5</v>
       </c>
       <c r="J11" s="11" t="s">
@@ -14708,7 +14717,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>255</v>
       </c>
       <c r="B12" s="19"/>
@@ -14728,7 +14737,7 @@
         <v>259</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="38" t="n">
+      <c r="I12" s="39" t="n">
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -14742,7 +14751,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>260</v>
       </c>
       <c r="B13" s="19"/>
@@ -14762,7 +14771,7 @@
         <v>259</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="38" t="n">
+      <c r="I13" s="39" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -14776,7 +14785,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>275</v>
       </c>
       <c r="B14" s="19"/>
@@ -14796,7 +14805,7 @@
         <v>207</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="38" t="n">
+      <c r="I14" s="39" t="n">
         <v>9</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -14810,7 +14819,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>279</v>
       </c>
       <c r="B15" s="19"/>
@@ -14830,7 +14839,7 @@
         <v>207</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="38" t="n">
+      <c r="I15" s="39" t="n">
         <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -14844,7 +14853,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>294</v>
       </c>
       <c r="B16" s="19"/>
@@ -14864,7 +14873,7 @@
         <v>286</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="38" t="n">
+      <c r="I16" s="39" t="n">
         <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -14892,7 +14901,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="38" t="n">
+      <c r="I17" s="39" t="n">
         <v>11</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -14906,10 +14915,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>730</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -14925,7 +14934,7 @@
         <v>234</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="41" t="s">
         <v>899</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -14942,7 +14951,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>320</v>
       </c>
       <c r="B19" s="19"/>
@@ -14974,7 +14983,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>325</v>
       </c>
       <c r="B20" s="19"/>
@@ -14992,7 +15001,7 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="38" t="n">
+      <c r="I20" s="39" t="n">
         <v>11</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -15006,10 +15015,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>750</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -15042,7 +15051,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>337</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -15078,7 +15087,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>343</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -15114,7 +15123,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>350</v>
       </c>
       <c r="B24" s="19"/>
@@ -15148,7 +15157,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>355</v>
       </c>
       <c r="B25" s="19"/>
@@ -15182,7 +15191,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>359</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -15218,7 +15227,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="38" t="s">
         <v>908</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -15252,7 +15261,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>368</v>
       </c>
       <c r="B28" s="19"/>
@@ -15286,7 +15295,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>374</v>
       </c>
       <c r="B29" s="19"/>
@@ -15320,7 +15329,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="38" t="s">
         <v>380</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -15356,7 +15365,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="38" t="s">
         <v>382</v>
       </c>
       <c r="B31" s="19"/>
@@ -15390,7 +15399,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="38" t="s">
         <v>386</v>
       </c>
       <c r="B32" s="19"/>
@@ -15424,7 +15433,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="38" t="s">
         <v>390</v>
       </c>
       <c r="B33" s="19"/>
@@ -15444,7 +15453,7 @@
         <v>372</v>
       </c>
       <c r="H33" s="11"/>
-      <c r="I33" s="38" t="n">
+      <c r="I33" s="39" t="n">
         <v>11</v>
       </c>
       <c r="J33" s="11" t="s">
@@ -15584,7 +15593,7 @@
         <v>227</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="38" t="n">
+      <c r="I37" s="39" t="n">
         <v>13</v>
       </c>
       <c r="J37" s="11" t="s">
@@ -15648,7 +15657,7 @@
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="38" t="n">
+      <c r="I39" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -15680,7 +15689,7 @@
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="38" t="n">
+      <c r="I40" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -15714,7 +15723,7 @@
         <v>511</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="38" t="n">
+      <c r="I41" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J41" s="11" t="s">
@@ -15748,7 +15757,7 @@
         <v>511</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="38" t="n">
+      <c r="I42" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J42" s="11" t="s">
@@ -15782,7 +15791,7 @@
         <v>511</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="38" t="n">
+      <c r="I43" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J43" s="11" t="s">
@@ -15815,7 +15824,7 @@
       <c r="G44" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="I44" s="38" t="n">
+      <c r="I44" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J44" s="11" t="s">
@@ -15849,7 +15858,7 @@
         <v>207</v>
       </c>
       <c r="H45" s="11"/>
-      <c r="I45" s="38" t="n">
+      <c r="I45" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -15885,7 +15894,7 @@
       <c r="H46" s="9" t="n">
         <v>73</v>
       </c>
-      <c r="I46" s="38" t="n">
+      <c r="I46" s="39" t="n">
         <v>14</v>
       </c>
       <c r="J46" s="11" t="s">
@@ -15899,7 +15908,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>557</v>
       </c>
       <c r="B47" s="19"/>
@@ -15919,7 +15928,7 @@
         <v>561</v>
       </c>
       <c r="H47" s="11"/>
-      <c r="I47" s="38" t="n">
+      <c r="I47" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -15933,7 +15942,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="38" t="s">
         <v>564</v>
       </c>
       <c r="B48" s="19"/>
@@ -15953,7 +15962,7 @@
         <v>561</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="38" t="n">
+      <c r="I48" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -15967,7 +15976,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>918</v>
       </c>
       <c r="B49" s="19"/>
@@ -15987,7 +15996,7 @@
         <v>561</v>
       </c>
       <c r="H49" s="11"/>
-      <c r="I49" s="38" t="n">
+      <c r="I49" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -16001,7 +16010,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="38" t="s">
         <v>572</v>
       </c>
       <c r="B50" s="19"/>
@@ -16021,7 +16030,7 @@
         <v>561</v>
       </c>
       <c r="H50" s="11"/>
-      <c r="I50" s="38" t="n">
+      <c r="I50" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -16035,7 +16044,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="38" t="s">
         <v>577</v>
       </c>
       <c r="B51" s="19"/>
@@ -16055,7 +16064,7 @@
         <v>561</v>
       </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="38" t="n">
+      <c r="I51" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -16069,7 +16078,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="38" t="s">
         <v>581</v>
       </c>
       <c r="B52" s="19"/>
@@ -16089,7 +16098,7 @@
         <v>561</v>
       </c>
       <c r="H52" s="11"/>
-      <c r="I52" s="38" t="n">
+      <c r="I52" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -16103,7 +16112,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>585</v>
       </c>
       <c r="B53" s="19"/>
@@ -16123,7 +16132,7 @@
         <v>561</v>
       </c>
       <c r="H53" s="11"/>
-      <c r="I53" s="38" t="n">
+      <c r="I53" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -16137,7 +16146,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="38" t="s">
         <v>590</v>
       </c>
       <c r="B54" s="19"/>
@@ -16157,7 +16166,7 @@
         <v>561</v>
       </c>
       <c r="H54" s="11"/>
-      <c r="I54" s="38" t="n">
+      <c r="I54" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -16171,7 +16180,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="38" t="s">
         <v>594</v>
       </c>
       <c r="B55" s="19"/>
@@ -16191,7 +16200,7 @@
         <v>561</v>
       </c>
       <c r="H55" s="11"/>
-      <c r="I55" s="38" t="n">
+      <c r="I55" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -16205,7 +16214,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="38" t="s">
         <v>598</v>
       </c>
       <c r="B56" s="19"/>
@@ -16225,7 +16234,7 @@
         <v>561</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="38" t="n">
+      <c r="I56" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J56" s="11" t="s">
@@ -16239,7 +16248,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="38" t="s">
         <v>602</v>
       </c>
       <c r="B57" s="19"/>
@@ -16259,7 +16268,7 @@
         <v>561</v>
       </c>
       <c r="H57" s="11"/>
-      <c r="I57" s="38" t="n">
+      <c r="I57" s="39" t="n">
         <v>15</v>
       </c>
       <c r="J57" s="11" t="s">
@@ -16361,7 +16370,7 @@
         <v>372</v>
       </c>
       <c r="H60" s="11"/>
-      <c r="I60" s="38" t="n">
+      <c r="I60" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -16389,7 +16398,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
-      <c r="I61" s="38" t="n">
+      <c r="I61" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -16417,7 +16426,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="38" t="n">
+      <c r="I62" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -16445,7 +16454,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="38" t="n">
+      <c r="I63" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -16473,7 +16482,7 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="38" t="n">
+      <c r="I64" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -16501,7 +16510,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
-      <c r="I65" s="38" t="n">
+      <c r="I65" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -16529,7 +16538,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="38" t="n">
+      <c r="I66" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J66" s="3" t="s">
@@ -16563,7 +16572,7 @@
         <v>372</v>
       </c>
       <c r="H67" s="11"/>
-      <c r="I67" s="38" t="n">
+      <c r="I67" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J67" s="3" t="s">
@@ -16591,7 +16600,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="38" t="n">
+      <c r="I68" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J68" s="3" t="s">
@@ -16625,7 +16634,7 @@
         <v>372</v>
       </c>
       <c r="H69" s="11"/>
-      <c r="I69" s="38" t="n">
+      <c r="I69" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J69" s="3" t="s">
@@ -16653,7 +16662,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="38" t="n">
+      <c r="I70" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J70" s="3" t="s">
@@ -16687,7 +16696,7 @@
         <v>372</v>
       </c>
       <c r="H71" s="11"/>
-      <c r="I71" s="38" t="n">
+      <c r="I71" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -16721,7 +16730,7 @@
         <v>372</v>
       </c>
       <c r="H72" s="11"/>
-      <c r="I72" s="38" t="n">
+      <c r="I72" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -16749,7 +16758,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
-      <c r="I73" s="38" t="n">
+      <c r="I73" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -16783,7 +16792,7 @@
         <v>372</v>
       </c>
       <c r="H74" s="11"/>
-      <c r="I74" s="38" t="n">
+      <c r="I74" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -16817,7 +16826,7 @@
         <v>372</v>
       </c>
       <c r="H75" s="11"/>
-      <c r="I75" s="38" t="n">
+      <c r="I75" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J75" s="3" t="s">
@@ -16851,7 +16860,7 @@
         <v>372</v>
       </c>
       <c r="H76" s="11"/>
-      <c r="I76" s="38" t="n">
+      <c r="I76" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J76" s="3" t="s">
@@ -16879,7 +16888,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="38" t="n">
+      <c r="I77" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J77" s="3" t="s">
@@ -16913,7 +16922,7 @@
         <v>372</v>
       </c>
       <c r="H78" s="11"/>
-      <c r="I78" s="38" t="n">
+      <c r="I78" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J78" s="3" t="s">
@@ -16941,7 +16950,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="38" t="n">
+      <c r="I79" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J79" s="3" t="s">
@@ -16969,7 +16978,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="38" t="n">
+      <c r="I80" s="39" t="n">
         <v>20</v>
       </c>
       <c r="J80" s="3" t="s">
@@ -16983,7 +16992,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="38" t="s">
         <v>692</v>
       </c>
       <c r="B81" s="19"/>
@@ -16997,7 +17006,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="38" t="n">
+      <c r="I81" s="39" t="n">
         <v>24</v>
       </c>
       <c r="J81" s="3" t="s">
@@ -17011,7 +17020,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="38" t="s">
         <v>698</v>
       </c>
       <c r="B82" s="19"/>
@@ -17025,7 +17034,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="38" t="n">
+      <c r="I82" s="39" t="n">
         <v>24</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -17039,7 +17048,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="38" t="s">
         <v>704</v>
       </c>
       <c r="B83" s="19"/>
@@ -17053,7 +17062,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="38" t="n">
+      <c r="I83" s="39" t="n">
         <v>24</v>
       </c>
       <c r="J83" s="3" t="s">
@@ -17067,7 +17076,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="38" t="s">
         <v>712</v>
       </c>
       <c r="B84" s="19"/>
@@ -17101,7 +17110,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="38" t="s">
         <v>410</v>
       </c>
       <c r="B85" s="19"/>
@@ -17121,7 +17130,7 @@
         <v>378</v>
       </c>
       <c r="H85" s="11"/>
-      <c r="I85" s="38" t="n">
+      <c r="I85" s="39" t="n">
         <v>13</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -17155,7 +17164,7 @@
         <v>372</v>
       </c>
       <c r="H86" s="11"/>
-      <c r="I86" s="38" t="n">
+      <c r="I86" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -17189,7 +17198,7 @@
         <v>207</v>
       </c>
       <c r="H87" s="11"/>
-      <c r="I87" s="38" t="n">
+      <c r="I87" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -17223,7 +17232,7 @@
         <v>227</v>
       </c>
       <c r="H88" s="11"/>
-      <c r="I88" s="38" t="n">
+      <c r="I88" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -17257,7 +17266,7 @@
         <v>227</v>
       </c>
       <c r="H89" s="11"/>
-      <c r="I89" s="38" t="n">
+      <c r="I89" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -17285,7 +17294,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="38" t="n">
+      <c r="I90" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -17319,7 +17328,7 @@
         <v>286</v>
       </c>
       <c r="H91" s="11"/>
-      <c r="I91" s="38" t="n">
+      <c r="I91" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -17353,7 +17362,7 @@
         <v>259</v>
       </c>
       <c r="H92" s="11"/>
-      <c r="I92" s="38" t="n">
+      <c r="I92" s="39" t="n">
         <v>27</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -17387,7 +17396,7 @@
         <v>286</v>
       </c>
       <c r="H93" s="11"/>
-      <c r="I93" s="38" t="n">
+      <c r="I93" s="39" t="n">
         <v>35</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -17421,7 +17430,7 @@
         <v>286</v>
       </c>
       <c r="H94" s="11"/>
-      <c r="I94" s="38" t="n">
+      <c r="I94" s="39" t="n">
         <v>35</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -17457,7 +17466,7 @@
         <v>286</v>
       </c>
       <c r="H95" s="11"/>
-      <c r="I95" s="38" t="s">
+      <c r="I95" s="39" t="s">
         <v>906</v>
       </c>
       <c r="J95" s="3" t="s">
@@ -17491,7 +17500,7 @@
         <v>286</v>
       </c>
       <c r="H96" s="11"/>
-      <c r="I96" s="38" t="n">
+      <c r="I96" s="39" t="n">
         <v>9</v>
       </c>
       <c r="J96" s="3" t="s">
@@ -17525,7 +17534,7 @@
         <v>286</v>
       </c>
       <c r="H97" s="11"/>
-      <c r="I97" s="38" t="n">
+      <c r="I97" s="39" t="n">
         <v>9</v>
       </c>
       <c r="J97" s="3" t="s">
@@ -17559,7 +17568,7 @@
         <v>286</v>
       </c>
       <c r="H98" s="11"/>
-      <c r="I98" s="38" t="n">
+      <c r="I98" s="39" t="n">
         <v>9</v>
       </c>
       <c r="J98" s="3" t="s">
@@ -17573,7 +17582,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="37" t="s">
+      <c r="A99" s="38" t="s">
         <v>784</v>
       </c>
       <c r="B99" s="19"/>
@@ -17607,7 +17616,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="37" t="s">
+      <c r="A100" s="38" t="s">
         <v>416</v>
       </c>
       <c r="B100" s="19" t="s">
@@ -17643,7 +17652,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="38" t="s">
         <v>446</v>
       </c>
       <c r="B101" s="19"/>
@@ -17675,10 +17684,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="38" t="s">
         <v>922</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="40" t="s">
         <v>761</v>
       </c>
       <c r="C102" s="28" t="s">
@@ -17711,7 +17720,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="38" t="s">
         <v>804</v>
       </c>
       <c r="B103" s="19"/>
@@ -17731,7 +17740,7 @@
         <v>372</v>
       </c>
       <c r="H103" s="11"/>
-      <c r="I103" s="38" t="n">
+      <c r="I103" s="39" t="n">
         <v>36</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -17745,7 +17754,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="38" t="s">
         <v>810</v>
       </c>
       <c r="B104" s="19"/>
@@ -17763,7 +17772,7 @@
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="38" t="n">
+      <c r="I104" s="39" t="n">
         <v>36</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -17777,7 +17786,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="38" t="s">
         <v>819</v>
       </c>
       <c r="B105" s="19"/>
@@ -17795,7 +17804,7 @@
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="38" t="n">
+      <c r="I105" s="39" t="n">
         <v>36</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -17809,7 +17818,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="38" t="s">
         <v>822</v>
       </c>
       <c r="B106" s="19"/>
@@ -17829,7 +17838,7 @@
         <v>372</v>
       </c>
       <c r="H106" s="11"/>
-      <c r="I106" s="38" t="n">
+      <c r="I106" s="39" t="n">
         <v>36</v>
       </c>
       <c r="J106" s="11" t="s">
@@ -17861,7 +17870,7 @@
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-      <c r="I107" s="38" t="n">
+      <c r="I107" s="39" t="n">
         <v>39</v>
       </c>
       <c r="J107" s="3" t="s">
@@ -17893,7 +17902,7 @@
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
-      <c r="I108" s="38" t="n">
+      <c r="I108" s="39" t="n">
         <v>39</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -17925,7 +17934,7 @@
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
-      <c r="I109" s="38" t="n">
+      <c r="I109" s="39" t="n">
         <v>39</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -17957,7 +17966,7 @@
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
-      <c r="I110" s="38" t="n">
+      <c r="I110" s="39" t="n">
         <v>39</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -17971,7 +17980,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="38" t="s">
         <v>858</v>
       </c>
       <c r="B111" s="19"/>
@@ -17991,7 +18000,7 @@
         <v>259</v>
       </c>
       <c r="H111" s="11"/>
-      <c r="I111" s="38" t="n">
+      <c r="I111" s="39" t="n">
         <v>37</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -18005,7 +18014,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="38" t="s">
         <v>862</v>
       </c>
       <c r="B112" s="19"/>
@@ -18025,7 +18034,7 @@
         <v>259</v>
       </c>
       <c r="H112" s="11"/>
-      <c r="I112" s="38" t="n">
+      <c r="I112" s="39" t="n">
         <v>37</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -18039,7 +18048,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="38" t="s">
         <v>872</v>
       </c>
       <c r="B113" s="19"/>
@@ -18059,7 +18068,7 @@
         <v>259</v>
       </c>
       <c r="H113" s="11"/>
-      <c r="I113" s="38" t="n">
+      <c r="I113" s="39" t="n">
         <v>37</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -18073,7 +18082,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="38" t="s">
         <v>876</v>
       </c>
       <c r="B114" s="19"/>
@@ -18093,7 +18102,7 @@
         <v>259</v>
       </c>
       <c r="H114" s="11"/>
-      <c r="I114" s="38" t="n">
+      <c r="I114" s="39" t="n">
         <v>37</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -18107,7 +18116,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="38" t="s">
         <v>879</v>
       </c>
       <c r="B115" s="19"/>
@@ -18127,7 +18136,7 @@
         <v>227</v>
       </c>
       <c r="H115" s="11"/>
-      <c r="I115" s="38" t="n">
+      <c r="I115" s="39" t="n">
         <v>37</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -18141,8 +18150,8 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="37" t="s">
-        <v>924</v>
+      <c r="A116" s="19" t="s">
+        <v>885</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="28" t="s">

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -2823,7 +2823,7 @@
     <t xml:space="preserve">This pattern can provide a flexible way to achieve better cooperation. A transaction is valid only when there are enough signatures from the authorities. In addition, this pattern can also be considered as an individual safeguard mechanism as the current blockchain technology does not provide a way to recover the lost private key.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolas’s Pattern</t>
+    <t xml:space="preserve">Nicolas Pattern</t>
   </si>
   <si>
     <t xml:space="preserve">in a particular context, it fixes a particular pb</t>
@@ -3444,7 +3444,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="A116 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3556,7 +3556,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="1" sqref="A116 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5608,10 +5608,10 @@
   </sheetPr>
   <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="720" topLeftCell="F148" activePane="bottomLeft" state="split"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="720" topLeftCell="F144" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
-      <selection pane="bottomLeft" activeCell="B165" activeCellId="0" sqref="B165"/>
+      <selection pane="bottomLeft" activeCell="B162" activeCellId="1" sqref="A116 B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14224,7 +14224,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="37" t="n">
         <v>161</v>
       </c>
@@ -14318,12 +14318,12 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
-      <selection pane="bottomRight" activeCell="B102" activeCellId="0" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="A116" activeCellId="0" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
